--- a/crmSeleniumProject/data/testData.xlsx
+++ b/crmSeleniumProject/data/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13170" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14340" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -75,36 +76,12 @@
     <t>DeleteOrgwenOrgContainsCont_oportnty</t>
   </si>
   <si>
-    <t>hdfc15</t>
-  </si>
-  <si>
-    <t>prtkhd19</t>
-  </si>
-  <si>
     <t>may_2_b20</t>
   </si>
   <si>
-    <t>hdfc34</t>
-  </si>
-  <si>
-    <t>hdfc47</t>
-  </si>
-  <si>
-    <t>swati20</t>
-  </si>
-  <si>
-    <t>swati30</t>
-  </si>
-  <si>
-    <t>swati10</t>
-  </si>
-  <si>
     <t>C:\Users\D.shahu\Desktop\Tulips.jpg</t>
   </si>
   <si>
-    <t>hdfc16</t>
-  </si>
-  <si>
     <t>Extra argument</t>
   </si>
   <si>
@@ -117,25 +94,49 @@
     <t>Chemicals</t>
   </si>
   <si>
-    <t>hdfc64</t>
-  </si>
-  <si>
-    <t>prtkhd30979</t>
-  </si>
-  <si>
-    <t>loraBnnr370</t>
-  </si>
-  <si>
-    <t>ayesha1</t>
-  </si>
-  <si>
-    <t>sbi1</t>
-  </si>
-  <si>
-    <t>ayeshaSbi1</t>
-  </si>
-  <si>
-    <t>telephone1</t>
+    <t>13sahil2</t>
+  </si>
+  <si>
+    <t>43hdfc34</t>
+  </si>
+  <si>
+    <t>53hdfc47</t>
+  </si>
+  <si>
+    <t>63hdfc64</t>
+  </si>
+  <si>
+    <t>73lavie2</t>
+  </si>
+  <si>
+    <t>13prtkhd30979</t>
+  </si>
+  <si>
+    <t>14sahilLavie2</t>
+  </si>
+  <si>
+    <t>14loraBnnr370</t>
+  </si>
+  <si>
+    <t>14newspaper20</t>
+  </si>
+  <si>
+    <t>14swati10</t>
+  </si>
+  <si>
+    <t>24swati30</t>
+  </si>
+  <si>
+    <t>14hdfc15</t>
+  </si>
+  <si>
+    <t>14prtkhd19</t>
+  </si>
+  <si>
+    <t>34swati20</t>
+  </si>
+  <si>
+    <t>34hdfc16</t>
   </si>
 </sst>
 </file>
@@ -477,7 +478,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -525,19 +526,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -548,10 +549,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -562,10 +563,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -573,10 +574,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -584,13 +585,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -601,13 +602,13 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -618,16 +619,16 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/crmSeleniumProject/data/testData.xlsx
+++ b/crmSeleniumProject/data/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14340" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14700" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>DeleteOrgwenOrgContainsCont_oportnty</t>
   </si>
   <si>
-    <t>may_2_b20</t>
-  </si>
-  <si>
     <t>C:\Users\D.shahu\Desktop\Tulips.jpg</t>
   </si>
   <si>
@@ -94,49 +91,52 @@
     <t>Chemicals</t>
   </si>
   <si>
-    <t>13sahil2</t>
-  </si>
-  <si>
-    <t>43hdfc34</t>
-  </si>
-  <si>
-    <t>53hdfc47</t>
-  </si>
-  <si>
-    <t>63hdfc64</t>
-  </si>
-  <si>
-    <t>73lavie2</t>
-  </si>
-  <si>
-    <t>13prtkhd30979</t>
-  </si>
-  <si>
-    <t>14sahilLavie2</t>
-  </si>
-  <si>
-    <t>14loraBnnr370</t>
-  </si>
-  <si>
-    <t>14newspaper20</t>
-  </si>
-  <si>
-    <t>14swati10</t>
-  </si>
-  <si>
-    <t>24swati30</t>
-  </si>
-  <si>
-    <t>14hdfc15</t>
-  </si>
-  <si>
-    <t>14prtkhd19</t>
-  </si>
-  <si>
-    <t>34swati20</t>
-  </si>
-  <si>
-    <t>34hdfc16</t>
+    <t>1may_2_b20</t>
+  </si>
+  <si>
+    <t>16swati10</t>
+  </si>
+  <si>
+    <t>26swati30</t>
+  </si>
+  <si>
+    <t>36swati20</t>
+  </si>
+  <si>
+    <t>16sahil2</t>
+  </si>
+  <si>
+    <t>16hdfc15</t>
+  </si>
+  <si>
+    <t>36hdfc16</t>
+  </si>
+  <si>
+    <t>46hdfc34</t>
+  </si>
+  <si>
+    <t>56hdfc47</t>
+  </si>
+  <si>
+    <t>66hdfc64</t>
+  </si>
+  <si>
+    <t>76lavie2</t>
+  </si>
+  <si>
+    <t>17prtkhd19</t>
+  </si>
+  <si>
+    <t>18prtkhd30979</t>
+  </si>
+  <si>
+    <t>19sahilLavie2</t>
+  </si>
+  <si>
+    <t>18loraBnnr370</t>
+  </si>
+  <si>
+    <t>19newspaper20</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -526,19 +526,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -549,10 +549,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -563,10 +563,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -574,10 +574,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -585,13 +585,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -602,13 +602,13 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -619,16 +619,16 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/crmSeleniumProject/data/testData.xlsx
+++ b/crmSeleniumProject/data/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14700" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15330" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,24 +94,9 @@
     <t>1may_2_b20</t>
   </si>
   <si>
-    <t>16swati10</t>
-  </si>
-  <si>
-    <t>26swati30</t>
-  </si>
-  <si>
-    <t>36swati20</t>
-  </si>
-  <si>
     <t>16sahil2</t>
   </si>
   <si>
-    <t>16hdfc15</t>
-  </si>
-  <si>
-    <t>36hdfc16</t>
-  </si>
-  <si>
     <t>46hdfc34</t>
   </si>
   <si>
@@ -137,6 +122,21 @@
   </si>
   <si>
     <t>19newspaper20</t>
+  </si>
+  <si>
+    <t>16hdfc16</t>
+  </si>
+  <si>
+    <t>16swati19</t>
+  </si>
+  <si>
+    <t>26swati39</t>
+  </si>
+  <si>
+    <t>36swati29</t>
+  </si>
+  <si>
+    <t>36hdfc20</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,16 +526,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
@@ -549,7 +549,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -563,10 +563,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
@@ -602,13 +602,13 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -619,16 +619,16 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
         <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
